--- a/xlsx/sample/4. DUBAI KNIGHT.xlsx
+++ b/xlsx/sample/4. DUBAI KNIGHT.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" tabRatio="852"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590" tabRatio="852" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="29" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="THUAN HAI TK5-SL5" sheetId="37" r:id="rId5"/>
     <sheet name="SAO MAI 86-68" sheetId="38" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -604,20 +604,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="12">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="d:hh:mm"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
-    <numFmt numFmtId="168" formatCode="[$]ddd\ dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="169" formatCode="hh:mm\ dd/mm/yyyy"/>
-    <numFmt numFmtId="170" formatCode="hh:mm\L\T\ dddd/mmmm/yyyy"/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="175" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="d:hh:mm"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[$]ddd\ dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="168" formatCode="hh:mm\ dd/mm/yyyy"/>
+    <numFmt numFmtId="169" formatCode="hh:mm\L\T\ dddd/mmmm/yyyy"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -903,34 +903,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,34 +942,34 @@
     <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -978,28 +978,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,7 +1008,7 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1017,28 +1017,28 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,16 +1047,16 @@
     <xf numFmtId="4" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,7 +1075,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1093,18 +1093,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1113,22 +1113,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="12" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1140,13 +1140,13 @@
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,10 +1161,10 @@
     <xf numFmtId="22" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1176,13 +1176,58 @@
     <xf numFmtId="20" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1192,68 +1237,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1545,7 +1545,7 @@
   </sheetPr>
   <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1646,8 +1646,8 @@
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:H60"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -1670,16 +1670,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
@@ -1845,10 +1845,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="103"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="57"/>
       <c r="H13" s="18"/>
     </row>
@@ -1905,52 +1905,52 @@
       <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="104" t="s">
+      <c r="C18" s="122"/>
+      <c r="D18" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="104" t="s">
+      <c r="F18" s="122"/>
+      <c r="G18" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="104" t="s">
+      <c r="H18" s="119" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="72"/>
-      <c r="J18" s="99" t="s">
+      <c r="J18" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="101"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
     </row>
     <row r="19" spans="1:15" ht="29.25">
-      <c r="A19" s="105"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="105"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="33" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="73" t="s">
         <v>35</v>
       </c>
@@ -1971,7 +1971,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="31.5">
-      <c r="A20" s="117">
+      <c r="A20" s="102">
         <v>43943</v>
       </c>
       <c r="B20" s="34"/>
@@ -1996,7 +1996,7 @@
       <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:15" ht="31.5">
-      <c r="A21" s="118"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="35">
         <f>C20</f>
         <v>0.79166666666666663</v>
@@ -2039,7 +2039,7 @@
       <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15" ht="31.5">
-      <c r="A22" s="117">
+      <c r="A22" s="102">
         <v>43944</v>
       </c>
       <c r="B22" s="35">
@@ -2073,7 +2073,7 @@
       <c r="O22" s="61"/>
     </row>
     <row r="23" spans="1:15" ht="47.25">
-      <c r="A23" s="119"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="56">
         <f t="shared" ref="B23" si="1">C22</f>
         <v>0.29166666666666669</v>
@@ -2081,7 +2081,7 @@
       <c r="C23" s="56">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="100" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="37">
@@ -2118,7 +2118,7 @@
       <c r="O23" s="61"/>
     </row>
     <row r="24" spans="1:15" ht="31.5">
-      <c r="A24" s="118"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="35">
         <f t="shared" ref="B24" si="4">C23</f>
         <v>0.45833333333333331</v>
@@ -2153,7 +2153,7 @@
       <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" ht="31.5">
-      <c r="A25" s="117">
+      <c r="A25" s="102">
         <v>43945</v>
       </c>
       <c r="B25" s="35">
@@ -2189,7 +2189,7 @@
       <c r="O25" s="61"/>
     </row>
     <row r="26" spans="1:15" ht="31.5">
-      <c r="A26" s="118"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="35">
         <f>C25</f>
         <v>0.60416666666666663</v>
@@ -2232,7 +2232,7 @@
       <c r="O26" s="61"/>
     </row>
     <row r="27" spans="1:15" ht="31.5">
-      <c r="A27" s="117">
+      <c r="A27" s="102">
         <v>43946</v>
       </c>
       <c r="B27" s="35">
@@ -2266,7 +2266,7 @@
       <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" ht="30">
-      <c r="A28" s="119"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="35">
         <f>C27</f>
         <v>0.33333333333333331</v>
@@ -2299,7 +2299,7 @@
       <c r="O28" s="61"/>
     </row>
     <row r="29" spans="1:15" ht="31.5">
-      <c r="A29" s="118"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="35">
         <f>C28</f>
         <v>0.4375</v>
@@ -2332,7 +2332,7 @@
       <c r="O29" s="61"/>
     </row>
     <row r="30" spans="1:15" ht="31.5">
-      <c r="A30" s="117">
+      <c r="A30" s="102">
         <v>43947</v>
       </c>
       <c r="B30" s="35">
@@ -2366,7 +2366,7 @@
       <c r="O30" s="61"/>
     </row>
     <row r="31" spans="1:15" ht="31.5">
-      <c r="A31" s="119"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="35">
         <f t="shared" ref="B31:B32" si="5">C30</f>
         <v>0.25</v>
@@ -2411,7 +2411,7 @@
       <c r="O31" s="61"/>
     </row>
     <row r="32" spans="1:15" ht="31.5">
-      <c r="A32" s="118"/>
+      <c r="A32" s="103"/>
       <c r="B32" s="35">
         <f t="shared" si="5"/>
         <v>0.59722222222222221</v>
@@ -2488,7 +2488,7 @@
       <c r="O33" s="61"/>
     </row>
     <row r="34" spans="1:15" ht="31.5">
-      <c r="A34" s="117">
+      <c r="A34" s="102">
         <v>43949</v>
       </c>
       <c r="B34" s="35">
@@ -2522,7 +2522,7 @@
       <c r="O34" s="61"/>
     </row>
     <row r="35" spans="1:15" ht="31.5">
-      <c r="A35" s="119"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="35">
         <f>C34</f>
         <v>0.125</v>
@@ -2567,7 +2567,7 @@
       <c r="O35" s="61"/>
     </row>
     <row r="36" spans="1:15" ht="31.5">
-      <c r="A36" s="119"/>
+      <c r="A36" s="104"/>
       <c r="B36" s="35">
         <f t="shared" ref="B36:B49" si="6">C35</f>
         <v>0.375</v>
@@ -2600,7 +2600,7 @@
       <c r="O36" s="61"/>
     </row>
     <row r="37" spans="1:15" ht="30">
-      <c r="A37" s="119"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="35">
         <f t="shared" si="6"/>
         <v>0.41666666666666669</v>
@@ -2633,7 +2633,7 @@
       <c r="O37" s="61"/>
     </row>
     <row r="38" spans="1:15" ht="30">
-      <c r="A38" s="119"/>
+      <c r="A38" s="104"/>
       <c r="B38" s="35">
         <f t="shared" si="6"/>
         <v>0.45833333333333331</v>
@@ -2666,7 +2666,7 @@
       <c r="O38" s="61"/>
     </row>
     <row r="39" spans="1:15" ht="30">
-      <c r="A39" s="119"/>
+      <c r="A39" s="104"/>
       <c r="B39" s="35"/>
       <c r="C39" s="43">
         <v>0.47222222222222227</v>
@@ -2696,7 +2696,7 @@
       <c r="O39" s="61"/>
     </row>
     <row r="40" spans="1:15" ht="30">
-      <c r="A40" s="119"/>
+      <c r="A40" s="104"/>
       <c r="B40" s="35">
         <f t="shared" si="6"/>
         <v>0.47222222222222227</v>
@@ -2731,7 +2731,7 @@
       <c r="O40" s="61"/>
     </row>
     <row r="41" spans="1:15" ht="30">
-      <c r="A41" s="119"/>
+      <c r="A41" s="104"/>
       <c r="B41" s="35">
         <f t="shared" si="6"/>
         <v>0.49305555555555558</v>
@@ -2766,7 +2766,7 @@
       <c r="O41" s="61"/>
     </row>
     <row r="42" spans="1:15" ht="30">
-      <c r="A42" s="119"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="35">
         <f t="shared" si="6"/>
         <v>0.52083333333333337</v>
@@ -2801,7 +2801,7 @@
       <c r="O42" s="61"/>
     </row>
     <row r="43" spans="1:15" ht="30">
-      <c r="A43" s="119"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="35">
         <f t="shared" si="6"/>
         <v>0.65972222222222221</v>
@@ -2836,7 +2836,7 @@
       <c r="O43" s="61"/>
     </row>
     <row r="44" spans="1:15" ht="30">
-      <c r="A44" s="119"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="35">
         <f t="shared" si="6"/>
         <v>0.67361111111111116</v>
@@ -2871,7 +2871,7 @@
       <c r="O44" s="61"/>
     </row>
     <row r="45" spans="1:15" ht="30">
-      <c r="A45" s="119"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="35">
         <f t="shared" si="6"/>
         <v>0.68055555555555547</v>
@@ -2906,7 +2906,7 @@
       <c r="O45" s="61"/>
     </row>
     <row r="46" spans="1:15" ht="30">
-      <c r="A46" s="119"/>
+      <c r="A46" s="104"/>
       <c r="B46" s="35">
         <f t="shared" si="6"/>
         <v>0.77083333333333337</v>
@@ -2941,7 +2941,7 @@
       <c r="O46" s="61"/>
     </row>
     <row r="47" spans="1:15" ht="30">
-      <c r="A47" s="119"/>
+      <c r="A47" s="104"/>
       <c r="B47" s="35">
         <f t="shared" si="6"/>
         <v>0.78472222222222221</v>
@@ -2976,7 +2976,7 @@
       <c r="O47" s="61"/>
     </row>
     <row r="48" spans="1:15" ht="30">
-      <c r="A48" s="119"/>
+      <c r="A48" s="104"/>
       <c r="B48" s="35">
         <f t="shared" si="6"/>
         <v>0.89583333333333337</v>
@@ -3011,7 +3011,7 @@
       <c r="O48" s="61"/>
     </row>
     <row r="49" spans="1:15" ht="30">
-      <c r="A49" s="118"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="35">
         <f t="shared" si="6"/>
         <v>0.92361111111111116</v>
@@ -3046,7 +3046,7 @@
       <c r="O49" s="61"/>
     </row>
     <row r="50" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A50" s="117">
+      <c r="A50" s="102">
         <v>43950</v>
       </c>
       <c r="B50" s="35">
@@ -3082,7 +3082,7 @@
       <c r="O50" s="61"/>
     </row>
     <row r="51" spans="1:15" ht="30">
-      <c r="A51" s="119"/>
+      <c r="A51" s="104"/>
       <c r="B51" s="35">
         <f>C50</f>
         <v>0.3125</v>
@@ -3117,7 +3117,7 @@
       <c r="O51" s="61"/>
     </row>
     <row r="52" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A52" s="119"/>
+      <c r="A52" s="104"/>
       <c r="B52" s="35">
         <f>C51</f>
         <v>0.31944444444444448</v>
@@ -3152,7 +3152,7 @@
       <c r="O52" s="61"/>
     </row>
     <row r="53" spans="1:15" ht="30">
-      <c r="A53" s="118"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="41"/>
       <c r="C53" s="43">
         <v>0.39583333333333331</v>
@@ -3178,14 +3178,14 @@
       <c r="O53" s="61"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="108"/>
-      <c r="B54" s="110" t="s">
+      <c r="A54" s="106"/>
+      <c r="B54" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="110"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
       <c r="G54" s="45">
         <f>G53</f>
         <v>2.8333333333333335</v>
@@ -3197,14 +3197,14 @@
       <c r="J54" s="81"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="108"/>
-      <c r="B55" s="110" t="s">
+      <c r="A55" s="106"/>
+      <c r="B55" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="110"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
       <c r="G55" s="47">
         <f>B16</f>
         <v>1.5753149999999998</v>
@@ -3216,14 +3216,14 @@
       <c r="J55" s="81"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="108"/>
-      <c r="B56" s="111" t="s">
+      <c r="A56" s="106"/>
+      <c r="B56" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="111"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="111"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
       <c r="G56" s="48"/>
       <c r="H56" s="46">
         <f>G56</f>
@@ -3232,14 +3232,14 @@
       <c r="J56" s="81"/>
     </row>
     <row r="57" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A57" s="108"/>
-      <c r="B57" s="111" t="s">
+      <c r="A57" s="106"/>
+      <c r="B57" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
       <c r="G57" s="48">
         <f>G54-G55</f>
         <v>1.2580183333333337</v>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="58" spans="1:15" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="111" t="s">
+      <c r="B58" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
       <c r="G58" s="48"/>
       <c r="H58" s="46"/>
       <c r="I58" s="82"/>
@@ -3270,13 +3270,13 @@
     </row>
     <row r="59" spans="1:15" s="60" customFormat="1" ht="15.6" customHeight="1">
       <c r="A59" s="67"/>
-      <c r="B59" s="112" t="s">
+      <c r="B59" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="114"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="111"/>
       <c r="G59" s="48">
         <f>G57*B13</f>
         <v>1887.0275000000006</v>
@@ -3290,14 +3290,14 @@
       <c r="N59" s="85"/>
     </row>
     <row r="60" spans="1:15" s="60" customFormat="1">
-      <c r="A60" s="115"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="115"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
       <c r="I60" s="82"/>
       <c r="J60" s="62"/>
       <c r="K60" s="84"/>
@@ -3306,16 +3306,16 @@
       <c r="N60" s="85"/>
     </row>
     <row r="61" spans="1:15" s="60" customFormat="1">
-      <c r="A61" s="116" t="s">
+      <c r="A61" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="113"/>
       <c r="I61" s="82"/>
       <c r="J61" s="62"/>
       <c r="K61" s="84"/>
@@ -3324,18 +3324,18 @@
       <c r="N61" s="85"/>
     </row>
     <row r="62" spans="1:15" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="109" t="s">
+      <c r="A62" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="109"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="109" t="s">
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="F62" s="109"/>
-      <c r="G62" s="109"/>
-      <c r="H62" s="109"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
       <c r="I62" s="82"/>
       <c r="J62" s="62"/>
       <c r="K62" s="84"/>
@@ -3344,14 +3344,14 @@
       <c r="N62" s="85"/>
     </row>
     <row r="63" spans="1:15" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A63" s="109"/>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="109"/>
-      <c r="H63" s="109"/>
+      <c r="A63" s="105"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
       <c r="I63" s="82"/>
       <c r="J63" s="62"/>
       <c r="K63" s="84"/>
@@ -3361,11 +3361,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A62:D63"/>
@@ -3379,15 +3383,11 @@
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="A60:H60"/>
     <mergeCell ref="A61:H61"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3425,16 +3425,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
@@ -3600,10 +3600,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="103"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="57"/>
       <c r="H13" s="18"/>
     </row>
@@ -3660,52 +3660,52 @@
       <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="104" t="s">
+      <c r="C18" s="122"/>
+      <c r="D18" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="104" t="s">
+      <c r="F18" s="122"/>
+      <c r="G18" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="104" t="s">
+      <c r="H18" s="119" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="72"/>
-      <c r="J18" s="99" t="s">
+      <c r="J18" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="101"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
     </row>
     <row r="19" spans="1:15" ht="29.25">
-      <c r="A19" s="105"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="105"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="33" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="73" t="s">
         <v>35</v>
       </c>
@@ -3726,7 +3726,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="31.5">
-      <c r="A20" s="117">
+      <c r="A20" s="102">
         <v>43943</v>
       </c>
       <c r="B20" s="34"/>
@@ -3751,7 +3751,7 @@
       <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:15" ht="31.5">
-      <c r="A21" s="118"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="35">
         <f>C20</f>
         <v>0.85416666666666663</v>
@@ -3794,7 +3794,7 @@
       <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15" ht="31.5">
-      <c r="A22" s="117">
+      <c r="A22" s="102">
         <v>43944</v>
       </c>
       <c r="B22" s="35">
@@ -3828,7 +3828,7 @@
       <c r="O22" s="61"/>
     </row>
     <row r="23" spans="1:15" ht="47.25">
-      <c r="A23" s="119"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="56">
         <f t="shared" ref="B23:B24" si="1">C22</f>
         <v>0.35416666666666669</v>
@@ -3836,15 +3836,15 @@
       <c r="C23" s="56">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="100" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="37">
-        <f t="shared" ref="E23:E66" si="2">HOUR(C23-B23)</f>
+        <f t="shared" ref="E23" si="2">HOUR(C23-B23)</f>
         <v>3</v>
       </c>
       <c r="F23" s="37">
-        <f t="shared" ref="F23:F66" si="3">MINUTE(C23-B23)</f>
+        <f t="shared" ref="F23" si="3">MINUTE(C23-B23)</f>
         <v>0</v>
       </c>
       <c r="G23" s="40">
@@ -3873,7 +3873,7 @@
       <c r="O23" s="61"/>
     </row>
     <row r="24" spans="1:15" ht="31.5">
-      <c r="A24" s="118"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="35">
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
@@ -3908,7 +3908,7 @@
       <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" ht="31.5">
-      <c r="A25" s="117">
+      <c r="A25" s="102">
         <v>43945</v>
       </c>
       <c r="B25" s="35">
@@ -3944,7 +3944,7 @@
       <c r="O25" s="61"/>
     </row>
     <row r="26" spans="1:15" ht="31.5">
-      <c r="A26" s="118"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="35">
         <f>C25</f>
         <v>0.60416666666666663</v>
@@ -3987,7 +3987,7 @@
       <c r="O26" s="61"/>
     </row>
     <row r="27" spans="1:15" ht="31.5">
-      <c r="A27" s="117">
+      <c r="A27" s="102">
         <v>43946</v>
       </c>
       <c r="B27" s="35">
@@ -4021,7 +4021,7 @@
       <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" ht="30">
-      <c r="A28" s="119"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="35">
         <f>C27</f>
         <v>0.33333333333333331</v>
@@ -4054,7 +4054,7 @@
       <c r="O28" s="61"/>
     </row>
     <row r="29" spans="1:15" ht="31.5">
-      <c r="A29" s="118"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="35">
         <f>C28</f>
         <v>0.375</v>
@@ -4087,7 +4087,7 @@
       <c r="O29" s="61"/>
     </row>
     <row r="30" spans="1:15" ht="31.5">
-      <c r="A30" s="117">
+      <c r="A30" s="102">
         <v>43947</v>
       </c>
       <c r="B30" s="35">
@@ -4123,7 +4123,7 @@
       <c r="O30" s="61"/>
     </row>
     <row r="31" spans="1:15" ht="31.5">
-      <c r="A31" s="119"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="35">
         <f t="shared" ref="B31:B32" si="6">C30</f>
         <v>0.25</v>
@@ -4168,7 +4168,7 @@
       <c r="O31" s="61"/>
     </row>
     <row r="32" spans="1:15" ht="31.5">
-      <c r="A32" s="118"/>
+      <c r="A32" s="103"/>
       <c r="B32" s="35">
         <f t="shared" si="6"/>
         <v>0.59722222222222221</v>
@@ -4246,7 +4246,7 @@
       <c r="O33" s="61"/>
     </row>
     <row r="34" spans="1:15" ht="31.5">
-      <c r="A34" s="117">
+      <c r="A34" s="102">
         <v>43949</v>
       </c>
       <c r="B34" s="35">
@@ -4280,7 +4280,7 @@
       <c r="O34" s="61"/>
     </row>
     <row r="35" spans="1:15" ht="31.5">
-      <c r="A35" s="119"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="35">
         <f>C34</f>
         <v>0.25</v>
@@ -4325,7 +4325,7 @@
       <c r="O35" s="61"/>
     </row>
     <row r="36" spans="1:15" ht="31.5">
-      <c r="A36" s="117">
+      <c r="A36" s="102">
         <v>43950</v>
       </c>
       <c r="B36" s="35">
@@ -4361,7 +4361,7 @@
       <c r="O36" s="61"/>
     </row>
     <row r="37" spans="1:15" ht="31.5">
-      <c r="A37" s="118"/>
+      <c r="A37" s="103"/>
       <c r="B37" s="35">
         <f t="shared" ref="B37:B62" si="7">C36</f>
         <v>0.4861111111111111</v>
@@ -4406,7 +4406,7 @@
       <c r="O37" s="61"/>
     </row>
     <row r="38" spans="1:15" ht="31.5">
-      <c r="A38" s="117">
+      <c r="A38" s="102">
         <v>43951</v>
       </c>
       <c r="B38" s="35">
@@ -4442,7 +4442,7 @@
       <c r="O38" s="61"/>
     </row>
     <row r="39" spans="1:15" ht="31.5">
-      <c r="A39" s="118"/>
+      <c r="A39" s="103"/>
       <c r="B39" s="35">
         <f t="shared" si="7"/>
         <v>0.47222222222222227</v>
@@ -4487,7 +4487,7 @@
       <c r="O39" s="61"/>
     </row>
     <row r="40" spans="1:15" ht="31.5">
-      <c r="A40" s="117">
+      <c r="A40" s="102">
         <v>43952</v>
       </c>
       <c r="B40" s="35">
@@ -4523,7 +4523,7 @@
       <c r="O40" s="61"/>
     </row>
     <row r="41" spans="1:15" ht="31.5">
-      <c r="A41" s="118"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="35">
         <f t="shared" si="7"/>
         <v>0.25</v>
@@ -4568,7 +4568,7 @@
       <c r="O41" s="61"/>
     </row>
     <row r="42" spans="1:15" ht="31.5">
-      <c r="A42" s="117">
+      <c r="A42" s="102">
         <v>43953</v>
       </c>
       <c r="B42" s="35">
@@ -4604,7 +4604,7 @@
       <c r="O42" s="61"/>
     </row>
     <row r="43" spans="1:15" ht="31.5">
-      <c r="A43" s="118"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="35">
         <f t="shared" si="7"/>
         <v>0.61111111111111105</v>
@@ -4681,7 +4681,7 @@
       <c r="O44" s="61"/>
     </row>
     <row r="45" spans="1:15" ht="31.5">
-      <c r="A45" s="117">
+      <c r="A45" s="102">
         <v>43955</v>
       </c>
       <c r="B45" s="35">
@@ -4715,7 +4715,7 @@
       <c r="O45" s="61"/>
     </row>
     <row r="46" spans="1:15" ht="31.5">
-      <c r="A46" s="118"/>
+      <c r="A46" s="103"/>
       <c r="B46" s="35">
         <f t="shared" si="7"/>
         <v>0.39583333333333331</v>
@@ -4760,7 +4760,7 @@
       <c r="O46" s="61"/>
     </row>
     <row r="47" spans="1:15" ht="31.5">
-      <c r="A47" s="117">
+      <c r="A47" s="102">
         <v>43956</v>
       </c>
       <c r="B47" s="35">
@@ -4796,7 +4796,7 @@
       <c r="O47" s="61"/>
     </row>
     <row r="48" spans="1:15" ht="31.5">
-      <c r="A48" s="118"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="35">
         <f t="shared" si="7"/>
         <v>0.60416666666666663</v>
@@ -4919,7 +4919,7 @@
       <c r="O50" s="61"/>
     </row>
     <row r="51" spans="1:15" ht="31.5">
-      <c r="A51" s="117">
+      <c r="A51" s="102">
         <v>43959</v>
       </c>
       <c r="B51" s="35">
@@ -4955,7 +4955,7 @@
       <c r="O51" s="61"/>
     </row>
     <row r="52" spans="1:15" ht="31.5">
-      <c r="A52" s="118"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="35">
         <f t="shared" si="7"/>
         <v>0.10416666666666667</v>
@@ -5000,7 +5000,7 @@
       <c r="O52" s="61"/>
     </row>
     <row r="53" spans="1:15" ht="31.5">
-      <c r="A53" s="108">
+      <c r="A53" s="106">
         <v>43960</v>
       </c>
       <c r="B53" s="35">
@@ -5036,7 +5036,7 @@
       <c r="O53" s="61"/>
     </row>
     <row r="54" spans="1:15" ht="31.5">
-      <c r="A54" s="108"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="35">
         <f t="shared" si="7"/>
         <v>8.3333333333333329E-2</v>
@@ -5079,7 +5079,7 @@
       <c r="O54" s="61"/>
     </row>
     <row r="55" spans="1:15" ht="31.5">
-      <c r="A55" s="108"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="35">
         <f t="shared" si="7"/>
         <v>0.125</v>
@@ -5112,7 +5112,7 @@
       <c r="O55" s="61"/>
     </row>
     <row r="56" spans="1:15" ht="30">
-      <c r="A56" s="108"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="35">
         <f t="shared" si="7"/>
         <v>0.24305555555555555</v>
@@ -5145,7 +5145,7 @@
       <c r="O56" s="61"/>
     </row>
     <row r="57" spans="1:15" ht="30">
-      <c r="A57" s="108"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="35">
         <f t="shared" si="7"/>
         <v>0.27083333333333331</v>
@@ -5178,7 +5178,7 @@
       <c r="O57" s="61"/>
     </row>
     <row r="58" spans="1:15" ht="31.5">
-      <c r="A58" s="108"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="35">
         <f t="shared" si="7"/>
         <v>0.3125</v>
@@ -5221,7 +5221,7 @@
       <c r="O58" s="61"/>
     </row>
     <row r="59" spans="1:15" ht="30">
-      <c r="A59" s="108"/>
+      <c r="A59" s="106"/>
       <c r="B59" s="35"/>
       <c r="C59" s="43">
         <v>0.6875</v>
@@ -5251,7 +5251,7 @@
       <c r="O59" s="61"/>
     </row>
     <row r="60" spans="1:15" ht="30">
-      <c r="A60" s="108"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="35">
         <f t="shared" si="7"/>
         <v>0.6875</v>
@@ -5286,7 +5286,7 @@
       <c r="O60" s="61"/>
     </row>
     <row r="61" spans="1:15" ht="30">
-      <c r="A61" s="108"/>
+      <c r="A61" s="106"/>
       <c r="B61" s="35">
         <f t="shared" si="7"/>
         <v>0.89583333333333337</v>
@@ -5321,7 +5321,7 @@
       <c r="O61" s="61"/>
     </row>
     <row r="62" spans="1:15" ht="30">
-      <c r="A62" s="108"/>
+      <c r="A62" s="106"/>
       <c r="B62" s="35">
         <f t="shared" si="7"/>
         <v>0.91666666666666663</v>
@@ -5356,7 +5356,7 @@
       <c r="O62" s="61"/>
     </row>
     <row r="63" spans="1:15" ht="30">
-      <c r="A63" s="119">
+      <c r="A63" s="104">
         <v>43961</v>
       </c>
       <c r="B63" s="35">
@@ -5392,7 +5392,7 @@
       <c r="O63" s="61"/>
     </row>
     <row r="64" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A64" s="119"/>
+      <c r="A64" s="104"/>
       <c r="B64" s="95">
         <f>C63</f>
         <v>2.0833333333333332E-2</v>
@@ -5400,7 +5400,7 @@
       <c r="C64" s="96">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D64" s="122" t="s">
+      <c r="D64" s="101" t="s">
         <v>27</v>
       </c>
       <c r="E64" s="97">
@@ -5425,7 +5425,7 @@
       <c r="O64" s="61"/>
     </row>
     <row r="65" spans="1:15" ht="30">
-      <c r="A65" s="119"/>
+      <c r="A65" s="104"/>
       <c r="B65" s="35">
         <f t="shared" ref="B65:B68" si="8">C64</f>
         <v>2.7777777777777776E-2</v>
@@ -5460,7 +5460,7 @@
       <c r="O65" s="61"/>
     </row>
     <row r="66" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A66" s="119"/>
+      <c r="A66" s="104"/>
       <c r="B66" s="35">
         <f t="shared" si="8"/>
         <v>0.22916666666666666</v>
@@ -5495,7 +5495,7 @@
       <c r="O66" s="61"/>
     </row>
     <row r="67" spans="1:15" ht="31.5">
-      <c r="A67" s="119"/>
+      <c r="A67" s="104"/>
       <c r="B67" s="35">
         <f t="shared" si="8"/>
         <v>0.25</v>
@@ -5530,7 +5530,7 @@
       <c r="O67" s="61"/>
     </row>
     <row r="68" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A68" s="119"/>
+      <c r="A68" s="104"/>
       <c r="B68" s="35">
         <f t="shared" si="8"/>
         <v>0.25694444444444448</v>
@@ -5565,7 +5565,7 @@
       <c r="O68" s="61"/>
     </row>
     <row r="69" spans="1:15" ht="30">
-      <c r="A69" s="118"/>
+      <c r="A69" s="103"/>
       <c r="B69" s="41"/>
       <c r="C69" s="43">
         <v>0.38194444444444442</v>
@@ -5591,14 +5591,14 @@
       <c r="O69" s="61"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="108"/>
-      <c r="B70" s="110" t="s">
+      <c r="A70" s="106"/>
+      <c r="B70" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="110"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="110"/>
-      <c r="F70" s="110"/>
+      <c r="C70" s="107"/>
+      <c r="D70" s="107"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="107"/>
       <c r="G70" s="45">
         <f>G69</f>
         <v>11.583333333333337</v>
@@ -5610,14 +5610,14 @@
       <c r="J70" s="81"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="108"/>
-      <c r="B71" s="110" t="s">
+      <c r="A71" s="106"/>
+      <c r="B71" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C71" s="110"/>
-      <c r="D71" s="110"/>
-      <c r="E71" s="110"/>
-      <c r="F71" s="110"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
       <c r="G71" s="47">
         <f>B16</f>
         <v>1.485975</v>
@@ -5629,14 +5629,14 @@
       <c r="J71" s="81"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="108"/>
-      <c r="B72" s="111" t="s">
+      <c r="A72" s="106"/>
+      <c r="B72" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="111"/>
-      <c r="D72" s="111"/>
-      <c r="E72" s="111"/>
-      <c r="F72" s="111"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
       <c r="G72" s="48"/>
       <c r="H72" s="46">
         <f>G72</f>
@@ -5645,14 +5645,14 @@
       <c r="J72" s="81"/>
     </row>
     <row r="73" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A73" s="108"/>
-      <c r="B73" s="111" t="s">
+      <c r="A73" s="106"/>
+      <c r="B73" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="111"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
       <c r="G73" s="48">
         <f>G70-G71</f>
         <v>10.097358333333338</v>
@@ -5665,13 +5665,13 @@
     </row>
     <row r="74" spans="1:15" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="67"/>
-      <c r="B74" s="111" t="s">
+      <c r="B74" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="111"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="111"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="108"/>
       <c r="G74" s="48"/>
       <c r="H74" s="46"/>
       <c r="I74" s="82"/>
@@ -5683,13 +5683,13 @@
     </row>
     <row r="75" spans="1:15" s="60" customFormat="1" ht="15.6" customHeight="1">
       <c r="A75" s="67"/>
-      <c r="B75" s="112" t="s">
+      <c r="B75" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="113"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="113"/>
-      <c r="F75" s="114"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="111"/>
       <c r="G75" s="48">
         <f>G73*B13</f>
         <v>15146.037500000006</v>
@@ -5703,14 +5703,14 @@
       <c r="N75" s="85"/>
     </row>
     <row r="76" spans="1:15" s="60" customFormat="1">
-      <c r="A76" s="115"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
-      <c r="G76" s="115"/>
-      <c r="H76" s="115"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="112"/>
+      <c r="G76" s="112"/>
+      <c r="H76" s="112"/>
       <c r="I76" s="82"/>
       <c r="J76" s="62"/>
       <c r="K76" s="84"/>
@@ -5719,16 +5719,16 @@
       <c r="N76" s="85"/>
     </row>
     <row r="77" spans="1:15" s="60" customFormat="1">
-      <c r="A77" s="116" t="s">
+      <c r="A77" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="116"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="116"/>
-      <c r="E77" s="116"/>
-      <c r="F77" s="116"/>
-      <c r="G77" s="116"/>
-      <c r="H77" s="116"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="113"/>
+      <c r="G77" s="113"/>
+      <c r="H77" s="113"/>
       <c r="I77" s="82"/>
       <c r="J77" s="62"/>
       <c r="K77" s="84"/>
@@ -5737,18 +5737,18 @@
       <c r="N77" s="85"/>
     </row>
     <row r="78" spans="1:15" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="109" t="s">
+      <c r="A78" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B78" s="109"/>
-      <c r="C78" s="109"/>
-      <c r="D78" s="109"/>
-      <c r="E78" s="109" t="s">
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="109"/>
-      <c r="G78" s="109"/>
-      <c r="H78" s="109"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
       <c r="I78" s="82"/>
       <c r="J78" s="62"/>
       <c r="K78" s="84"/>
@@ -5757,14 +5757,14 @@
       <c r="N78" s="85"/>
     </row>
     <row r="79" spans="1:15" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A79" s="109"/>
-      <c r="B79" s="109"/>
-      <c r="C79" s="109"/>
-      <c r="D79" s="109"/>
-      <c r="E79" s="109"/>
-      <c r="F79" s="109"/>
-      <c r="G79" s="109"/>
-      <c r="H79" s="109"/>
+      <c r="A79" s="105"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
       <c r="I79" s="82"/>
       <c r="J79" s="62"/>
       <c r="K79" s="84"/>
@@ -5774,24 +5774,14 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="A78:D79"/>
-    <mergeCell ref="E78:H79"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
@@ -5801,14 +5791,24 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A78:D79"/>
+    <mergeCell ref="E78:H79"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A51:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5846,16 +5846,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
@@ -6021,10 +6021,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="103"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="57"/>
       <c r="H13" s="18"/>
     </row>
@@ -6081,52 +6081,52 @@
       <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="104" t="s">
+      <c r="C18" s="122"/>
+      <c r="D18" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="104" t="s">
+      <c r="F18" s="122"/>
+      <c r="G18" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="104" t="s">
+      <c r="H18" s="119" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="72"/>
-      <c r="J18" s="99" t="s">
+      <c r="J18" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="101"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
     </row>
     <row r="19" spans="1:15" ht="29.25">
-      <c r="A19" s="105"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="105"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="33" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="73" t="s">
         <v>35</v>
       </c>
@@ -6147,7 +6147,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="31.5">
-      <c r="A20" s="117">
+      <c r="A20" s="102">
         <v>43954</v>
       </c>
       <c r="B20" s="34"/>
@@ -6172,7 +6172,7 @@
       <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:15" ht="31.5">
-      <c r="A21" s="118"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="35">
         <f>C20</f>
         <v>0.875</v>
@@ -6215,7 +6215,7 @@
       <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15" ht="31.5">
-      <c r="A22" s="117">
+      <c r="A22" s="102">
         <v>43955</v>
       </c>
       <c r="B22" s="35">
@@ -6249,7 +6249,7 @@
       <c r="O22" s="61"/>
     </row>
     <row r="23" spans="1:15" ht="31.5">
-      <c r="A23" s="118"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="35">
         <f>C22</f>
         <v>0.39583333333333331</v>
@@ -6292,7 +6292,7 @@
       <c r="O23" s="61"/>
     </row>
     <row r="24" spans="1:15" ht="31.5">
-      <c r="A24" s="117">
+      <c r="A24" s="102">
         <v>43956</v>
       </c>
       <c r="B24" s="35">
@@ -6326,7 +6326,7 @@
       <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" ht="31.5">
-      <c r="A25" s="118"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="35">
         <f>C24</f>
         <v>0.60416666666666663</v>
@@ -6447,7 +6447,7 @@
       <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" ht="31.5">
-      <c r="A28" s="117">
+      <c r="A28" s="102">
         <v>43959</v>
       </c>
       <c r="B28" s="35">
@@ -6481,7 +6481,7 @@
       <c r="O28" s="61"/>
     </row>
     <row r="29" spans="1:15" ht="31.5">
-      <c r="A29" s="118"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="35">
         <f t="shared" ref="B29:B37" si="1">C28</f>
         <v>4.8611111111111112E-2</v>
@@ -6524,7 +6524,7 @@
       <c r="O29" s="61"/>
     </row>
     <row r="30" spans="1:15" ht="31.5">
-      <c r="A30" s="117">
+      <c r="A30" s="102">
         <v>43960</v>
       </c>
       <c r="B30" s="35">
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="37">
-        <f t="shared" ref="F23:F37" si="2">MINUTE(C30-B30)</f>
+        <f t="shared" ref="F30" si="2">MINUTE(C30-B30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="40">
@@ -6559,7 +6559,7 @@
       <c r="O30" s="61"/>
     </row>
     <row r="31" spans="1:15" ht="31.5">
-      <c r="A31" s="119"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="35">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
@@ -6592,7 +6592,7 @@
       <c r="O31" s="61"/>
     </row>
     <row r="32" spans="1:15" ht="30">
-      <c r="A32" s="119"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="35">
         <f t="shared" si="1"/>
         <v>0.19444444444444445</v>
@@ -6625,7 +6625,7 @@
       <c r="O32" s="61"/>
     </row>
     <row r="33" spans="1:15" ht="30">
-      <c r="A33" s="119"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="35">
         <f t="shared" si="1"/>
         <v>0.19791666666666666</v>
@@ -6658,7 +6658,7 @@
       <c r="O33" s="61"/>
     </row>
     <row r="34" spans="1:15" ht="30">
-      <c r="A34" s="119"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="35"/>
       <c r="C34" s="43">
         <v>0.25</v>
@@ -6688,7 +6688,7 @@
       <c r="O34" s="61"/>
     </row>
     <row r="35" spans="1:15" ht="30">
-      <c r="A35" s="119"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="35">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -6723,7 +6723,7 @@
       <c r="O35" s="61"/>
     </row>
     <row r="36" spans="1:15" ht="30">
-      <c r="A36" s="119"/>
+      <c r="A36" s="104"/>
       <c r="B36" s="35">
         <f>C35</f>
         <v>0.5625</v>
@@ -6758,7 +6758,7 @@
       <c r="O36" s="61"/>
     </row>
     <row r="37" spans="1:15" ht="30">
-      <c r="A37" s="119"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="35">
         <f t="shared" si="1"/>
         <v>0.58333333333333337</v>
@@ -6793,7 +6793,7 @@
       <c r="O37" s="61"/>
     </row>
     <row r="38" spans="1:15" ht="30">
-      <c r="A38" s="118"/>
+      <c r="A38" s="103"/>
       <c r="B38" s="41"/>
       <c r="C38" s="43">
         <v>0.85416666666666663</v>
@@ -6819,14 +6819,14 @@
       <c r="O38" s="61"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="108"/>
-      <c r="B39" s="110" t="s">
+      <c r="A39" s="106"/>
+      <c r="B39" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
       <c r="G39" s="45">
         <f>G38</f>
         <v>0.60416666666666663</v>
@@ -6838,14 +6838,14 @@
       <c r="J39" s="81"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="108"/>
-      <c r="B40" s="110" t="s">
+      <c r="A40" s="106"/>
+      <c r="B40" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
       <c r="G40" s="47">
         <f>B16</f>
         <v>1.4552800000000001</v>
@@ -6857,14 +6857,14 @@
       <c r="J40" s="81"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="108"/>
-      <c r="B41" s="111" t="s">
+      <c r="A41" s="106"/>
+      <c r="B41" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
       <c r="G41" s="48">
         <f>G40-G39</f>
         <v>0.8511133333333335</v>
@@ -6876,14 +6876,14 @@
       <c r="J41" s="81"/>
     </row>
     <row r="42" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A42" s="108"/>
-      <c r="B42" s="111" t="s">
+      <c r="A42" s="106"/>
+      <c r="B42" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
       <c r="G42" s="48"/>
       <c r="H42" s="46">
         <f t="shared" ref="H42" si="5">G42</f>
@@ -6893,13 +6893,13 @@
     </row>
     <row r="43" spans="1:15" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="67"/>
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
       <c r="G43" s="48">
         <f>G41*B14</f>
         <v>638.33500000000015</v>
@@ -6914,13 +6914,13 @@
     </row>
     <row r="44" spans="1:15" s="60" customFormat="1" ht="15.6" customHeight="1">
       <c r="A44" s="67"/>
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="114"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="111"/>
       <c r="G44" s="48"/>
       <c r="H44" s="46"/>
       <c r="I44" s="82"/>
@@ -6931,14 +6931,14 @@
       <c r="N44" s="85"/>
     </row>
     <row r="45" spans="1:15" s="60" customFormat="1">
-      <c r="A45" s="115"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
       <c r="I45" s="82"/>
       <c r="J45" s="62"/>
       <c r="K45" s="84"/>
@@ -6947,16 +6947,16 @@
       <c r="N45" s="85"/>
     </row>
     <row r="46" spans="1:15" s="60" customFormat="1">
-      <c r="A46" s="116" t="s">
+      <c r="A46" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="113"/>
       <c r="I46" s="82"/>
       <c r="J46" s="62"/>
       <c r="K46" s="84"/>
@@ -6965,18 +6965,18 @@
       <c r="N46" s="85"/>
     </row>
     <row r="47" spans="1:15" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A47" s="109" t="s">
+      <c r="A47" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109" t="s">
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
       <c r="I47" s="82"/>
       <c r="J47" s="62"/>
       <c r="K47" s="84"/>
@@ -6985,14 +6985,14 @@
       <c r="N47" s="85"/>
     </row>
     <row r="48" spans="1:15" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A48" s="109"/>
-      <c r="B48" s="109"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
       <c r="I48" s="82"/>
       <c r="J48" s="62"/>
       <c r="K48" s="84"/>
@@ -7002,19 +7002,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:D48"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="A30:A38"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
@@ -7027,6 +7014,19 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="E47:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7064,16 +7064,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
@@ -7239,10 +7239,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="103"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="57"/>
       <c r="H13" s="18"/>
     </row>
@@ -7299,52 +7299,52 @@
       <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="104" t="s">
+      <c r="C18" s="122"/>
+      <c r="D18" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="104" t="s">
+      <c r="F18" s="122"/>
+      <c r="G18" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="104" t="s">
+      <c r="H18" s="119" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="72"/>
-      <c r="J18" s="99" t="s">
+      <c r="J18" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="101"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
     </row>
     <row r="19" spans="1:15" ht="29.25">
-      <c r="A19" s="105"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="105"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="33" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="73" t="s">
         <v>35</v>
       </c>
@@ -7365,7 +7365,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="31.5">
-      <c r="A20" s="117">
+      <c r="A20" s="102">
         <v>43954</v>
       </c>
       <c r="B20" s="34"/>
@@ -7390,7 +7390,7 @@
       <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:15" ht="31.5">
-      <c r="A21" s="118"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="35">
         <f>C20</f>
         <v>0.95833333333333337</v>
@@ -7433,7 +7433,7 @@
       <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15" ht="31.5">
-      <c r="A22" s="117">
+      <c r="A22" s="102">
         <v>43955</v>
       </c>
       <c r="B22" s="35">
@@ -7467,7 +7467,7 @@
       <c r="O22" s="61"/>
     </row>
     <row r="23" spans="1:15" ht="31.5">
-      <c r="A23" s="118"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="35">
         <f>C22</f>
         <v>0.39583333333333331</v>
@@ -7510,7 +7510,7 @@
       <c r="O23" s="61"/>
     </row>
     <row r="24" spans="1:15" ht="31.5">
-      <c r="A24" s="117">
+      <c r="A24" s="102">
         <v>43956</v>
       </c>
       <c r="B24" s="35">
@@ -7544,7 +7544,7 @@
       <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" ht="31.5">
-      <c r="A25" s="118"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="35">
         <f>C24</f>
         <v>0.60416666666666663</v>
@@ -7665,7 +7665,7 @@
       <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" ht="31.5">
-      <c r="A28" s="117">
+      <c r="A28" s="102">
         <v>43959</v>
       </c>
       <c r="B28" s="35">
@@ -7699,7 +7699,7 @@
       <c r="O28" s="61"/>
     </row>
     <row r="29" spans="1:15" ht="31.5">
-      <c r="A29" s="118"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="35">
         <f t="shared" ref="B29" si="1">C28</f>
         <v>0.10416666666666667</v>
@@ -7742,7 +7742,7 @@
       <c r="O29" s="61"/>
     </row>
     <row r="30" spans="1:15" ht="31.5">
-      <c r="A30" s="117">
+      <c r="A30" s="102">
         <v>43960</v>
       </c>
       <c r="B30" s="35">
@@ -7776,7 +7776,7 @@
       <c r="O30" s="61"/>
     </row>
     <row r="31" spans="1:15" ht="31.5">
-      <c r="A31" s="118"/>
+      <c r="A31" s="103"/>
       <c r="B31" s="35">
         <f t="shared" ref="B31" si="2">C30</f>
         <v>8.3333333333333329E-2</v>
@@ -7817,7 +7817,7 @@
       <c r="O31" s="61"/>
     </row>
     <row r="32" spans="1:15" ht="31.5">
-      <c r="A32" s="108">
+      <c r="A32" s="106">
         <v>43961</v>
       </c>
       <c r="B32" s="35">
@@ -7851,7 +7851,7 @@
       <c r="O32" s="61"/>
     </row>
     <row r="33" spans="1:15" ht="31.5">
-      <c r="A33" s="108"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="35">
         <f>C32</f>
         <v>0.38194444444444442</v>
@@ -7892,7 +7892,7 @@
       <c r="O33" s="61"/>
     </row>
     <row r="34" spans="1:15" ht="31.5">
-      <c r="A34" s="108"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="35">
         <f>C33</f>
         <v>0.79166666666666663</v>
@@ -7933,7 +7933,7 @@
       <c r="O34" s="61"/>
     </row>
     <row r="35" spans="1:15" ht="31.5">
-      <c r="A35" s="108">
+      <c r="A35" s="106">
         <v>43962</v>
       </c>
       <c r="B35" s="35">
@@ -7967,7 +7967,7 @@
       <c r="O35" s="61"/>
     </row>
     <row r="36" spans="1:15" ht="31.5">
-      <c r="A36" s="108"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="35">
         <f>C35</f>
         <v>0.1875</v>
@@ -8008,7 +8008,7 @@
       <c r="O36" s="61"/>
     </row>
     <row r="37" spans="1:15" ht="31.5">
-      <c r="A37" s="108">
+      <c r="A37" s="106">
         <v>43963</v>
       </c>
       <c r="B37" s="35">
@@ -8042,7 +8042,7 @@
       <c r="O37" s="61"/>
     </row>
     <row r="38" spans="1:15" ht="31.5">
-      <c r="A38" s="108"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="35">
         <f>C37</f>
         <v>0.59722222222222221</v>
@@ -8083,7 +8083,7 @@
       <c r="O38" s="61"/>
     </row>
     <row r="39" spans="1:15" ht="30">
-      <c r="A39" s="108"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="35">
         <f t="shared" ref="B39:B40" si="3">C38</f>
         <v>0.625</v>
@@ -8116,7 +8116,7 @@
       <c r="O39" s="61"/>
     </row>
     <row r="40" spans="1:15" ht="31.5">
-      <c r="A40" s="108"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="35">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
@@ -8149,7 +8149,7 @@
       <c r="O40" s="61"/>
     </row>
     <row r="41" spans="1:15" ht="31.5">
-      <c r="A41" s="117">
+      <c r="A41" s="102">
         <v>43964</v>
       </c>
       <c r="B41" s="35">
@@ -8183,7 +8183,7 @@
       <c r="O41" s="61"/>
     </row>
     <row r="42" spans="1:15" ht="30">
-      <c r="A42" s="119"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="35"/>
       <c r="C42" s="41">
         <v>0.34722222222222227</v>
@@ -8213,9 +8213,9 @@
       <c r="O42" s="61"/>
     </row>
     <row r="43" spans="1:15" ht="30">
-      <c r="A43" s="119"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="35">
-        <f t="shared" ref="B43:B62" si="4">C42</f>
+        <f t="shared" ref="B43:B48" si="4">C42</f>
         <v>0.34722222222222227</v>
       </c>
       <c r="C43" s="41">
@@ -8246,7 +8246,7 @@
       <c r="O43" s="61"/>
     </row>
     <row r="44" spans="1:15" ht="31.5">
-      <c r="A44" s="119"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="35">
         <f t="shared" si="4"/>
         <v>0.3888888888888889</v>
@@ -8287,7 +8287,7 @@
       <c r="O44" s="61"/>
     </row>
     <row r="45" spans="1:15" ht="30">
-      <c r="A45" s="119"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="35"/>
       <c r="C45" s="43">
         <v>0.59722222222222221</v>
@@ -8317,7 +8317,7 @@
       <c r="O45" s="61"/>
     </row>
     <row r="46" spans="1:15" ht="30">
-      <c r="A46" s="119"/>
+      <c r="A46" s="104"/>
       <c r="B46" s="35">
         <f t="shared" si="4"/>
         <v>0.59722222222222221</v>
@@ -8352,7 +8352,7 @@
       <c r="O46" s="61"/>
     </row>
     <row r="47" spans="1:15" ht="31.5">
-      <c r="A47" s="119"/>
+      <c r="A47" s="104"/>
       <c r="B47" s="35">
         <f t="shared" si="4"/>
         <v>0.65277777777777779</v>
@@ -8391,7 +8391,7 @@
       <c r="O47" s="61"/>
     </row>
     <row r="48" spans="1:15" ht="30">
-      <c r="A48" s="118"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="35">
         <f t="shared" si="4"/>
         <v>0.86111111111111116</v>
@@ -8426,7 +8426,7 @@
       <c r="O48" s="61"/>
     </row>
     <row r="49" spans="1:15" ht="30">
-      <c r="A49" s="117">
+      <c r="A49" s="102">
         <v>43965</v>
       </c>
       <c r="B49" s="35">
@@ -8462,7 +8462,7 @@
       <c r="O49" s="61"/>
     </row>
     <row r="50" spans="1:15" ht="30">
-      <c r="A50" s="119"/>
+      <c r="A50" s="104"/>
       <c r="B50" s="35">
         <f>C49</f>
         <v>0.19444444444444445</v>
@@ -8497,7 +8497,7 @@
       <c r="O50" s="61"/>
     </row>
     <row r="51" spans="1:15" ht="30">
-      <c r="A51" s="119"/>
+      <c r="A51" s="104"/>
       <c r="B51" s="35">
         <f t="shared" ref="B51:B63" si="9">C50</f>
         <v>0.21527777777777779</v>
@@ -8532,7 +8532,7 @@
       <c r="O51" s="61"/>
     </row>
     <row r="52" spans="1:15" ht="30">
-      <c r="A52" s="119"/>
+      <c r="A52" s="104"/>
       <c r="B52" s="35">
         <f t="shared" si="9"/>
         <v>0.22916666666666666</v>
@@ -8567,7 +8567,7 @@
       <c r="O52" s="61"/>
     </row>
     <row r="53" spans="1:15" ht="31.5">
-      <c r="A53" s="119"/>
+      <c r="A53" s="104"/>
       <c r="B53" s="35">
         <f t="shared" si="9"/>
         <v>0.25</v>
@@ -8606,7 +8606,7 @@
       <c r="O53" s="61"/>
     </row>
     <row r="54" spans="1:15" ht="30">
-      <c r="A54" s="119"/>
+      <c r="A54" s="104"/>
       <c r="B54" s="35">
         <f t="shared" si="9"/>
         <v>0.27430555555555552</v>
@@ -8641,7 +8641,7 @@
       <c r="O54" s="61"/>
     </row>
     <row r="55" spans="1:15" ht="30">
-      <c r="A55" s="119"/>
+      <c r="A55" s="104"/>
       <c r="B55" s="35">
         <f t="shared" si="9"/>
         <v>0.3125</v>
@@ -8680,7 +8680,7 @@
       <c r="O55" s="61"/>
     </row>
     <row r="56" spans="1:15" ht="30">
-      <c r="A56" s="119"/>
+      <c r="A56" s="104"/>
       <c r="B56" s="35">
         <f t="shared" si="9"/>
         <v>0.31944444444444448</v>
@@ -8715,7 +8715,7 @@
       <c r="O56" s="61"/>
     </row>
     <row r="57" spans="1:15" ht="31.5">
-      <c r="A57" s="119"/>
+      <c r="A57" s="104"/>
       <c r="B57" s="35">
         <f t="shared" si="9"/>
         <v>0.47222222222222227</v>
@@ -8756,7 +8756,7 @@
       <c r="O57" s="61"/>
     </row>
     <row r="58" spans="1:15" ht="31.5">
-      <c r="A58" s="119"/>
+      <c r="A58" s="104"/>
       <c r="B58" s="35">
         <f t="shared" si="9"/>
         <v>0.59722222222222221</v>
@@ -8789,7 +8789,7 @@
       <c r="O58" s="61"/>
     </row>
     <row r="59" spans="1:15" ht="30">
-      <c r="A59" s="119"/>
+      <c r="A59" s="104"/>
       <c r="B59" s="35">
         <f t="shared" si="9"/>
         <v>0.625</v>
@@ -8824,7 +8824,7 @@
       <c r="O59" s="61"/>
     </row>
     <row r="60" spans="1:15" ht="31.5">
-      <c r="A60" s="119"/>
+      <c r="A60" s="104"/>
       <c r="B60" s="35">
         <f t="shared" si="9"/>
         <v>0.69444444444444453</v>
@@ -8867,7 +8867,7 @@
       <c r="O60" s="61"/>
     </row>
     <row r="61" spans="1:15" ht="30">
-      <c r="A61" s="119"/>
+      <c r="A61" s="104"/>
       <c r="B61" s="35">
         <f t="shared" si="9"/>
         <v>0.71527777777777779</v>
@@ -8902,7 +8902,7 @@
       <c r="O61" s="61"/>
     </row>
     <row r="62" spans="1:15" ht="30">
-      <c r="A62" s="119"/>
+      <c r="A62" s="104"/>
       <c r="B62" s="35">
         <f t="shared" si="9"/>
         <v>0.79861111111111116</v>
@@ -8937,7 +8937,7 @@
       <c r="O62" s="61"/>
     </row>
     <row r="63" spans="1:15" ht="30">
-      <c r="A63" s="119"/>
+      <c r="A63" s="104"/>
       <c r="B63" s="35">
         <f t="shared" si="9"/>
         <v>0.80555555555555547</v>
@@ -8972,7 +8972,7 @@
       <c r="O63" s="61"/>
     </row>
     <row r="64" spans="1:15" ht="30">
-      <c r="A64" s="120"/>
+      <c r="A64" s="99"/>
       <c r="B64" s="41"/>
       <c r="C64" s="43">
         <v>0.875</v>
@@ -8998,14 +8998,14 @@
       <c r="O64" s="61"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="108"/>
-      <c r="B65" s="110" t="s">
+      <c r="A65" s="106"/>
+      <c r="B65" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="110"/>
-      <c r="D65" s="110"/>
-      <c r="E65" s="110"/>
-      <c r="F65" s="110"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
       <c r="G65" s="45">
         <f>G64</f>
         <v>1.125</v>
@@ -9017,14 +9017,14 @@
       <c r="J65" s="81"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="108"/>
-      <c r="B66" s="110" t="s">
+      <c r="A66" s="106"/>
+      <c r="B66" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
       <c r="G66" s="47">
         <f>B16</f>
         <v>1.4314799999999999</v>
@@ -9036,14 +9036,14 @@
       <c r="J66" s="81"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="108"/>
-      <c r="B67" s="111" t="s">
+      <c r="A67" s="106"/>
+      <c r="B67" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="111"/>
-      <c r="D67" s="111"/>
-      <c r="E67" s="111"/>
-      <c r="F67" s="111"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
       <c r="G67" s="48">
         <f>G66-G65</f>
         <v>0.30647999999999986</v>
@@ -9055,14 +9055,14 @@
       <c r="J67" s="81"/>
     </row>
     <row r="68" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A68" s="108"/>
-      <c r="B68" s="111" t="s">
+      <c r="A68" s="106"/>
+      <c r="B68" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="111"/>
-      <c r="D68" s="111"/>
-      <c r="E68" s="111"/>
-      <c r="F68" s="111"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
       <c r="G68" s="48"/>
       <c r="H68" s="46">
         <f t="shared" ref="H68" si="10">G68</f>
@@ -9072,13 +9072,13 @@
     </row>
     <row r="69" spans="1:14" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="67"/>
-      <c r="B69" s="111" t="s">
+      <c r="B69" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="111"/>
-      <c r="D69" s="111"/>
-      <c r="E69" s="111"/>
-      <c r="F69" s="111"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
       <c r="G69" s="48">
         <f>G67*B14</f>
         <v>229.8599999999999</v>
@@ -9093,13 +9093,13 @@
     </row>
     <row r="70" spans="1:14" s="60" customFormat="1" ht="15.6" customHeight="1">
       <c r="A70" s="67"/>
-      <c r="B70" s="112" t="s">
+      <c r="B70" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="113"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113"/>
-      <c r="F70" s="114"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="111"/>
       <c r="G70" s="48"/>
       <c r="H70" s="46"/>
       <c r="I70" s="82"/>
@@ -9110,14 +9110,14 @@
       <c r="N70" s="85"/>
     </row>
     <row r="71" spans="1:14" s="60" customFormat="1">
-      <c r="A71" s="115"/>
-      <c r="B71" s="115"/>
-      <c r="C71" s="115"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="115"/>
-      <c r="F71" s="115"/>
-      <c r="G71" s="115"/>
-      <c r="H71" s="115"/>
+      <c r="A71" s="112"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
+      <c r="G71" s="112"/>
+      <c r="H71" s="112"/>
       <c r="I71" s="82"/>
       <c r="J71" s="62"/>
       <c r="K71" s="84"/>
@@ -9126,16 +9126,16 @@
       <c r="N71" s="85"/>
     </row>
     <row r="72" spans="1:14" s="60" customFormat="1">
-      <c r="A72" s="116" t="s">
+      <c r="A72" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B72" s="116"/>
-      <c r="C72" s="116"/>
-      <c r="D72" s="116"/>
-      <c r="E72" s="116"/>
-      <c r="F72" s="116"/>
-      <c r="G72" s="116"/>
-      <c r="H72" s="116"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="113"/>
+      <c r="D72" s="113"/>
+      <c r="E72" s="113"/>
+      <c r="F72" s="113"/>
+      <c r="G72" s="113"/>
+      <c r="H72" s="113"/>
       <c r="I72" s="82"/>
       <c r="J72" s="62"/>
       <c r="K72" s="84"/>
@@ -9144,18 +9144,18 @@
       <c r="N72" s="85"/>
     </row>
     <row r="73" spans="1:14" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A73" s="109" t="s">
+      <c r="A73" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="109"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109" t="s">
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="105"/>
+      <c r="E73" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="F73" s="109"/>
-      <c r="G73" s="109"/>
-      <c r="H73" s="109"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
       <c r="I73" s="82"/>
       <c r="J73" s="62"/>
       <c r="K73" s="84"/>
@@ -9164,14 +9164,14 @@
       <c r="N73" s="85"/>
     </row>
     <row r="74" spans="1:14" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A74" s="109"/>
-      <c r="B74" s="109"/>
-      <c r="C74" s="109"/>
-      <c r="D74" s="109"/>
-      <c r="E74" s="109"/>
-      <c r="F74" s="109"/>
-      <c r="G74" s="109"/>
-      <c r="H74" s="109"/>
+      <c r="A74" s="105"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
       <c r="I74" s="82"/>
       <c r="J74" s="62"/>
       <c r="K74" s="84"/>
@@ -9181,18 +9181,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A49:A63"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="A73:D74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="A41:A48"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A36"/>
@@ -9203,14 +9199,18 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A73:D74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="A49:A63"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A72:H72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9224,8 +9224,8 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -9248,16 +9248,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
@@ -9423,10 +9423,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="103"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="57"/>
       <c r="H13" s="18"/>
     </row>
@@ -9483,52 +9483,52 @@
       <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="104" t="s">
+      <c r="C18" s="122"/>
+      <c r="D18" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="104" t="s">
+      <c r="F18" s="122"/>
+      <c r="G18" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="104" t="s">
+      <c r="H18" s="119" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="72"/>
-      <c r="J18" s="99" t="s">
+      <c r="J18" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="101"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
     </row>
     <row r="19" spans="1:15" ht="29.25">
-      <c r="A19" s="105"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="105"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="33" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="73" t="s">
         <v>35</v>
       </c>
@@ -9549,7 +9549,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="31.5">
-      <c r="A20" s="117">
+      <c r="A20" s="102">
         <v>43955</v>
       </c>
       <c r="B20" s="35"/>
@@ -9574,7 +9574,7 @@
       <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:15" ht="31.5">
-      <c r="A21" s="118"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="35">
         <f>C20</f>
         <v>0.81944444444444453</v>
@@ -9617,7 +9617,7 @@
       <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15" ht="31.5">
-      <c r="A22" s="117">
+      <c r="A22" s="102">
         <v>43956</v>
       </c>
       <c r="B22" s="35">
@@ -9651,7 +9651,7 @@
       <c r="O22" s="61"/>
     </row>
     <row r="23" spans="1:15" ht="31.5">
-      <c r="A23" s="118"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="35">
         <f>C22</f>
         <v>0.60416666666666663</v>
@@ -9772,7 +9772,7 @@
       <c r="O25" s="61"/>
     </row>
     <row r="26" spans="1:15" ht="31.5">
-      <c r="A26" s="117">
+      <c r="A26" s="102">
         <v>43959</v>
       </c>
       <c r="B26" s="35">
@@ -9806,7 +9806,7 @@
       <c r="O26" s="61"/>
     </row>
     <row r="27" spans="1:15" ht="31.5">
-      <c r="A27" s="118"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="35">
         <f t="shared" ref="B27" si="1">C26</f>
         <v>4.8611111111111112E-2</v>
@@ -9849,7 +9849,7 @@
       <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" ht="31.5">
-      <c r="A28" s="117">
+      <c r="A28" s="102">
         <v>43960</v>
       </c>
       <c r="B28" s="35">
@@ -9883,7 +9883,7 @@
       <c r="O28" s="61"/>
     </row>
     <row r="29" spans="1:15" ht="31.5">
-      <c r="A29" s="118"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="35">
         <f t="shared" ref="B29" si="2">C28</f>
         <v>8.3333333333333329E-2</v>
@@ -9924,7 +9924,7 @@
       <c r="O29" s="61"/>
     </row>
     <row r="30" spans="1:15" ht="31.5">
-      <c r="A30" s="108">
+      <c r="A30" s="106">
         <v>43961</v>
       </c>
       <c r="B30" s="35">
@@ -9958,7 +9958,7 @@
       <c r="O30" s="61"/>
     </row>
     <row r="31" spans="1:15" ht="31.5">
-      <c r="A31" s="108"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="35">
         <f>C30</f>
         <v>0.13194444444444445</v>
@@ -9999,7 +9999,7 @@
       <c r="O31" s="61"/>
     </row>
     <row r="32" spans="1:15" ht="31.5">
-      <c r="A32" s="108"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="35">
         <f t="shared" ref="B32:B33" si="3">C31</f>
         <v>0.40277777777777773</v>
@@ -10040,7 +10040,7 @@
       <c r="O32" s="61"/>
     </row>
     <row r="33" spans="1:15" ht="31.5">
-      <c r="A33" s="108"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="35">
         <f t="shared" si="3"/>
         <v>0.625</v>
@@ -10081,7 +10081,7 @@
       <c r="O33" s="61"/>
     </row>
     <row r="34" spans="1:15" ht="31.5">
-      <c r="A34" s="108">
+      <c r="A34" s="106">
         <v>43962</v>
       </c>
       <c r="B34" s="35">
@@ -10115,7 +10115,7 @@
       <c r="O34" s="61"/>
     </row>
     <row r="35" spans="1:15" ht="31.5">
-      <c r="A35" s="108"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="35">
         <f>C34</f>
         <v>0.25</v>
@@ -10156,7 +10156,7 @@
       <c r="O35" s="61"/>
     </row>
     <row r="36" spans="1:15" ht="31.5">
-      <c r="A36" s="117">
+      <c r="A36" s="102">
         <v>43963</v>
       </c>
       <c r="B36" s="35">
@@ -10190,7 +10190,7 @@
       <c r="O36" s="61"/>
     </row>
     <row r="37" spans="1:15" ht="31.5">
-      <c r="A37" s="119"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="35">
         <f>C36</f>
         <v>0.59722222222222221</v>
@@ -10231,7 +10231,7 @@
       <c r="O37" s="61"/>
     </row>
     <row r="38" spans="1:15" ht="31.5">
-      <c r="A38" s="119"/>
+      <c r="A38" s="104"/>
       <c r="B38" s="35">
         <f t="shared" ref="B38:B53" si="4">C37</f>
         <v>0.6875</v>
@@ -10264,7 +10264,7 @@
       <c r="O38" s="61"/>
     </row>
     <row r="39" spans="1:15" ht="30">
-      <c r="A39" s="119"/>
+      <c r="A39" s="104"/>
       <c r="B39" s="35">
         <f t="shared" si="4"/>
         <v>0.73611111111111116</v>
@@ -10297,7 +10297,7 @@
       <c r="O39" s="61"/>
     </row>
     <row r="40" spans="1:15" ht="30">
-      <c r="A40" s="119"/>
+      <c r="A40" s="104"/>
       <c r="B40" s="35">
         <f t="shared" si="4"/>
         <v>0.74305555555555547</v>
@@ -10330,7 +10330,7 @@
       <c r="O40" s="61"/>
     </row>
     <row r="41" spans="1:15" ht="31.5">
-      <c r="A41" s="119"/>
+      <c r="A41" s="104"/>
       <c r="B41" s="35">
         <f t="shared" si="4"/>
         <v>0.79166666666666663</v>
@@ -10367,7 +10367,7 @@
       <c r="O41" s="61"/>
     </row>
     <row r="42" spans="1:15" ht="30">
-      <c r="A42" s="119"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="35"/>
       <c r="C42" s="43">
         <v>0.93055555555555547</v>
@@ -10397,7 +10397,7 @@
       <c r="O42" s="61"/>
     </row>
     <row r="43" spans="1:15" ht="30">
-      <c r="A43" s="119"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="35">
         <f t="shared" si="4"/>
         <v>0.93055555555555547</v>
@@ -10432,7 +10432,7 @@
       <c r="O43" s="61"/>
     </row>
     <row r="44" spans="1:15" ht="30">
-      <c r="A44" s="108">
+      <c r="A44" s="106">
         <v>43964</v>
       </c>
       <c r="B44" s="35">
@@ -10468,7 +10468,7 @@
       <c r="O44" s="61"/>
     </row>
     <row r="45" spans="1:15" ht="30">
-      <c r="A45" s="108"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="35">
         <f t="shared" si="4"/>
         <v>2.7777777777777776E-2</v>
@@ -10503,7 +10503,7 @@
       <c r="O45" s="61"/>
     </row>
     <row r="46" spans="1:15" ht="30">
-      <c r="A46" s="108"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="35">
         <f t="shared" si="4"/>
         <v>3.4722222222222224E-2</v>
@@ -10515,11 +10515,11 @@
         <v>27</v>
       </c>
       <c r="E46" s="37">
-        <f t="shared" ref="E45:E57" si="7">HOUR(C46-B46)</f>
+        <f t="shared" ref="E46:E57" si="7">HOUR(C46-B46)</f>
         <v>2</v>
       </c>
       <c r="F46" s="37">
-        <f t="shared" ref="F45:F57" si="8">MINUTE(C46-B46)</f>
+        <f t="shared" ref="F46:F57" si="8">MINUTE(C46-B46)</f>
         <v>20</v>
       </c>
       <c r="G46" s="40">
@@ -10538,7 +10538,7 @@
       <c r="O46" s="61"/>
     </row>
     <row r="47" spans="1:15" ht="30">
-      <c r="A47" s="108"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="35">
         <f t="shared" si="4"/>
         <v>0.13194444444444445</v>
@@ -10573,7 +10573,7 @@
       <c r="O47" s="61"/>
     </row>
     <row r="48" spans="1:15" ht="30">
-      <c r="A48" s="108"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="35">
         <f t="shared" si="4"/>
         <v>0.1388888888888889</v>
@@ -10608,7 +10608,7 @@
       <c r="O48" s="61"/>
     </row>
     <row r="49" spans="1:15" ht="30">
-      <c r="A49" s="108"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="35">
         <f t="shared" si="4"/>
         <v>0.23611111111111113</v>
@@ -10643,7 +10643,7 @@
       <c r="O49" s="61"/>
     </row>
     <row r="50" spans="1:15" ht="30">
-      <c r="A50" s="108"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="35">
         <f t="shared" si="4"/>
         <v>0.27083333333333331</v>
@@ -10678,7 +10678,7 @@
       <c r="O50" s="61"/>
     </row>
     <row r="51" spans="1:15" ht="30">
-      <c r="A51" s="108"/>
+      <c r="A51" s="106"/>
       <c r="B51" s="35">
         <f t="shared" si="4"/>
         <v>0.34027777777777773</v>
@@ -10713,7 +10713,7 @@
       <c r="O51" s="61"/>
     </row>
     <row r="52" spans="1:15" ht="30">
-      <c r="A52" s="108"/>
+      <c r="A52" s="106"/>
       <c r="B52" s="35">
         <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
@@ -10748,7 +10748,7 @@
       <c r="O52" s="61"/>
     </row>
     <row r="53" spans="1:15" ht="31.5">
-      <c r="A53" s="108"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="35">
         <f t="shared" si="4"/>
         <v>0.86111111111111116</v>
@@ -10783,7 +10783,7 @@
       <c r="O53" s="61"/>
     </row>
     <row r="54" spans="1:15" ht="31.5">
-      <c r="A54" s="117">
+      <c r="A54" s="102">
         <v>43965</v>
       </c>
       <c r="B54" s="35">
@@ -10819,7 +10819,7 @@
       <c r="O54" s="61"/>
     </row>
     <row r="55" spans="1:15" ht="30">
-      <c r="A55" s="119"/>
+      <c r="A55" s="104"/>
       <c r="B55" s="35">
         <f>C54</f>
         <v>0.375</v>
@@ -10854,9 +10854,9 @@
       <c r="O55" s="61"/>
     </row>
     <row r="56" spans="1:15" ht="31.5">
-      <c r="A56" s="119"/>
+      <c r="A56" s="104"/>
       <c r="B56" s="35">
-        <f t="shared" ref="B50:B57" si="9">C55</f>
+        <f t="shared" ref="B56:B57" si="9">C55</f>
         <v>0.54861111111111105</v>
       </c>
       <c r="C56" s="41">
@@ -10889,7 +10889,7 @@
       <c r="O56" s="61"/>
     </row>
     <row r="57" spans="1:15" ht="30">
-      <c r="A57" s="119"/>
+      <c r="A57" s="104"/>
       <c r="B57" s="35">
         <f t="shared" si="9"/>
         <v>0.59722222222222221</v>
@@ -10924,7 +10924,7 @@
       <c r="O57" s="61"/>
     </row>
     <row r="58" spans="1:15" ht="30">
-      <c r="A58" s="118"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="41"/>
       <c r="C58" s="43">
         <v>0.63888888888888895</v>
@@ -10950,14 +10950,14 @@
       <c r="O58" s="61"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="108"/>
-      <c r="B59" s="110" t="s">
+      <c r="A59" s="106"/>
+      <c r="B59" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="110"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="110"/>
-      <c r="F59" s="110"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
       <c r="G59" s="45">
         <f>G58</f>
         <v>1.7291666666666667</v>
@@ -10969,14 +10969,14 @@
       <c r="J59" s="81"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="108"/>
-      <c r="B60" s="110" t="s">
+      <c r="A60" s="106"/>
+      <c r="B60" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="110"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="110"/>
-      <c r="F60" s="110"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
       <c r="G60" s="47">
         <f>B16</f>
         <v>1.18787</v>
@@ -10988,14 +10988,14 @@
       <c r="J60" s="81"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="108"/>
-      <c r="B61" s="111" t="s">
+      <c r="A61" s="106"/>
+      <c r="B61" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
       <c r="G61" s="48"/>
       <c r="H61" s="46">
         <f>G61</f>
@@ -11004,14 +11004,14 @@
       <c r="J61" s="81"/>
     </row>
     <row r="62" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A62" s="108"/>
-      <c r="B62" s="111" t="s">
+      <c r="A62" s="106"/>
+      <c r="B62" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="111"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="111"/>
-      <c r="F62" s="111"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108"/>
       <c r="G62" s="48">
         <f>G59-G60</f>
         <v>0.54129666666666676</v>
@@ -11024,13 +11024,13 @@
     </row>
     <row r="63" spans="1:15" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="67"/>
-      <c r="B63" s="111" t="s">
+      <c r="B63" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="111"/>
-      <c r="D63" s="111"/>
-      <c r="E63" s="111"/>
-      <c r="F63" s="111"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
       <c r="G63" s="48"/>
       <c r="H63" s="46"/>
       <c r="I63" s="82"/>
@@ -11042,13 +11042,13 @@
     </row>
     <row r="64" spans="1:15" s="60" customFormat="1" ht="15.6" customHeight="1">
       <c r="A64" s="67"/>
-      <c r="B64" s="112" t="s">
+      <c r="B64" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="114"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="111"/>
       <c r="G64" s="48">
         <f>G62*B13</f>
         <v>811.94500000000016</v>
@@ -11062,14 +11062,14 @@
       <c r="N64" s="85"/>
     </row>
     <row r="65" spans="1:14" s="60" customFormat="1">
-      <c r="A65" s="115"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="115"/>
+      <c r="A65" s="112"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="112"/>
       <c r="I65" s="82"/>
       <c r="J65" s="62"/>
       <c r="K65" s="84"/>
@@ -11078,16 +11078,16 @@
       <c r="N65" s="85"/>
     </row>
     <row r="66" spans="1:14" s="60" customFormat="1">
-      <c r="A66" s="116" t="s">
+      <c r="A66" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="116"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="116"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="116"/>
-      <c r="H66" s="116"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="113"/>
+      <c r="H66" s="113"/>
       <c r="I66" s="82"/>
       <c r="J66" s="62"/>
       <c r="K66" s="84"/>
@@ -11096,18 +11096,18 @@
       <c r="N66" s="85"/>
     </row>
     <row r="67" spans="1:14" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A67" s="109" t="s">
+      <c r="A67" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="109"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="109" t="s">
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="F67" s="109"/>
-      <c r="G67" s="109"/>
-      <c r="H67" s="109"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
       <c r="I67" s="82"/>
       <c r="J67" s="62"/>
       <c r="K67" s="84"/>
@@ -11116,14 +11116,14 @@
       <c r="N67" s="85"/>
     </row>
     <row r="68" spans="1:14" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A68" s="109"/>
-      <c r="B68" s="109"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="109"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="109"/>
-      <c r="G68" s="109"/>
-      <c r="H68" s="109"/>
+      <c r="A68" s="105"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
       <c r="I68" s="82"/>
       <c r="J68" s="62"/>
       <c r="K68" s="84"/>
@@ -11133,6 +11133,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A67:D68"/>
@@ -11146,22 +11162,6 @@
     <mergeCell ref="B62:F62"/>
     <mergeCell ref="B63:F63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
